--- a/xlsx/第一次世界大戰_intext.xlsx
+++ b/xlsx/第一次世界大戰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1153">
   <si>
     <t>第一次世界大戰</t>
   </si>
@@ -29,7 +29,7 @@
     <t>第二次世界大战</t>
   </si>
   <si>
-    <t>政策_政策_美國_第一次世界大戰</t>
+    <t>体育运动_体育运动_奥林匹克运动会_第一次世界大戰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%88%B0%E7%B7%9A_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
@@ -698,10 +698,10 @@
     <t>巴尔干半岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>奧斯曼帝國</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>鄂圖曼帝國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
@@ -1104,12 +1104,6 @@
   </si>
   <si>
     <t>黑手黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E7%86%B1%E7%AA%A9%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>薩拉熱窩事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92</t>
@@ -3828,7 +3822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:I624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6289,7 +6283,7 @@
         <v>158</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -6724,7 +6718,7 @@
         <v>186</v>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6782,7 +6776,7 @@
         <v>188</v>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -6869,7 +6863,7 @@
         <v>158</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -7391,7 +7385,7 @@
         <v>228</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -9450,7 +9444,7 @@
         <v>364</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -9479,7 +9473,7 @@
         <v>366</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9508,7 +9502,7 @@
         <v>368</v>
       </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9537,7 +9531,7 @@
         <v>370</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9624,7 +9618,7 @@
         <v>376</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9653,7 +9647,7 @@
         <v>378</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9682,7 +9676,7 @@
         <v>380</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -9711,7 +9705,7 @@
         <v>382</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9740,7 +9734,7 @@
         <v>384</v>
       </c>
       <c r="G204" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9885,7 +9879,7 @@
         <v>394</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9943,7 +9937,7 @@
         <v>398</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9972,7 +9966,7 @@
         <v>400</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9995,13 +9989,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -10024,13 +10018,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>103</v>
+        <v>401</v>
       </c>
       <c r="F214" t="s">
-        <v>104</v>
+        <v>402</v>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -10059,7 +10053,7 @@
         <v>404</v>
       </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -10088,7 +10082,7 @@
         <v>406</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -10117,7 +10111,7 @@
         <v>408</v>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -10146,7 +10140,7 @@
         <v>410</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -10175,7 +10169,7 @@
         <v>412</v>
       </c>
       <c r="G219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -10204,7 +10198,7 @@
         <v>414</v>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10233,7 +10227,7 @@
         <v>416</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -10262,7 +10256,7 @@
         <v>418</v>
       </c>
       <c r="G222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -10291,7 +10285,7 @@
         <v>420</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -10378,7 +10372,7 @@
         <v>426</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10407,7 +10401,7 @@
         <v>428</v>
       </c>
       <c r="G227" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10436,7 +10430,7 @@
         <v>430</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10465,7 +10459,7 @@
         <v>432</v>
       </c>
       <c r="G229" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10488,10 +10482,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>128</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10517,10 +10511,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>127</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>128</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10552,7 +10546,7 @@
         <v>436</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10581,7 +10575,7 @@
         <v>438</v>
       </c>
       <c r="G233" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10610,7 +10604,7 @@
         <v>440</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10755,7 +10749,7 @@
         <v>450</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10784,7 +10778,7 @@
         <v>452</v>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10813,7 +10807,7 @@
         <v>454</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10842,7 +10836,7 @@
         <v>456</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10929,7 +10923,7 @@
         <v>462</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10958,7 +10952,7 @@
         <v>464</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -11132,7 +11126,7 @@
         <v>476</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -11161,7 +11155,7 @@
         <v>478</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -11248,7 +11242,7 @@
         <v>484</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11277,7 +11271,7 @@
         <v>486</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11306,7 +11300,7 @@
         <v>488</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11387,13 +11381,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>125</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>126</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11416,10 +11410,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>125</v>
+        <v>493</v>
       </c>
       <c r="F262" t="s">
-        <v>126</v>
+        <v>494</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11480,7 +11474,7 @@
         <v>498</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11509,7 +11503,7 @@
         <v>500</v>
       </c>
       <c r="G265" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11538,7 +11532,7 @@
         <v>502</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11567,7 +11561,7 @@
         <v>504</v>
       </c>
       <c r="G267" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -11683,7 +11677,7 @@
         <v>512</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11741,7 +11735,7 @@
         <v>516</v>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11770,7 +11764,7 @@
         <v>518</v>
       </c>
       <c r="G274" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11973,7 +11967,7 @@
         <v>532</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -12002,7 +11996,7 @@
         <v>534</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -12031,7 +12025,7 @@
         <v>536</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -12060,7 +12054,7 @@
         <v>538</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -12118,7 +12112,7 @@
         <v>542</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -12147,7 +12141,7 @@
         <v>544</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -12176,7 +12170,7 @@
         <v>546</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -12205,7 +12199,7 @@
         <v>548</v>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -12234,7 +12228,7 @@
         <v>550</v>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -12263,7 +12257,7 @@
         <v>552</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -12321,7 +12315,7 @@
         <v>556</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -12350,7 +12344,7 @@
         <v>558</v>
       </c>
       <c r="G294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12379,7 +12373,7 @@
         <v>560</v>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12408,7 +12402,7 @@
         <v>562</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12466,7 +12460,7 @@
         <v>566</v>
       </c>
       <c r="G298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12495,7 +12489,7 @@
         <v>568</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12553,7 +12547,7 @@
         <v>572</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12582,7 +12576,7 @@
         <v>574</v>
       </c>
       <c r="G302" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12611,7 +12605,7 @@
         <v>576</v>
       </c>
       <c r="G303" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12640,7 +12634,7 @@
         <v>578</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12669,7 +12663,7 @@
         <v>580</v>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12843,7 +12837,7 @@
         <v>592</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12872,7 +12866,7 @@
         <v>594</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12901,7 +12895,7 @@
         <v>596</v>
       </c>
       <c r="G313" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12988,7 +12982,7 @@
         <v>602</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13017,7 +13011,7 @@
         <v>604</v>
       </c>
       <c r="G317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13046,7 +13040,7 @@
         <v>606</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -13075,7 +13069,7 @@
         <v>608</v>
       </c>
       <c r="G319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -13133,7 +13127,7 @@
         <v>612</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -13162,7 +13156,7 @@
         <v>614</v>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -13249,7 +13243,7 @@
         <v>620</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -13278,7 +13272,7 @@
         <v>622</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13307,7 +13301,7 @@
         <v>624</v>
       </c>
       <c r="G327" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13336,7 +13330,7 @@
         <v>626</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13388,10 +13382,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>629</v>
+        <v>45</v>
       </c>
       <c r="F330" t="s">
-        <v>630</v>
+        <v>46</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13417,13 +13411,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>45</v>
+        <v>629</v>
       </c>
       <c r="F331" t="s">
-        <v>46</v>
+        <v>630</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13452,7 +13446,7 @@
         <v>632</v>
       </c>
       <c r="G332" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13481,7 +13475,7 @@
         <v>634</v>
       </c>
       <c r="G333" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -13539,7 +13533,7 @@
         <v>638</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13568,7 +13562,7 @@
         <v>640</v>
       </c>
       <c r="G336" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13765,10 +13759,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>485</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>486</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13794,10 +13788,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>487</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>488</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13829,7 +13823,7 @@
         <v>656</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13858,7 +13852,7 @@
         <v>658</v>
       </c>
       <c r="G346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13945,7 +13939,7 @@
         <v>664</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13974,7 +13968,7 @@
         <v>666</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -14177,7 +14171,7 @@
         <v>680</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14206,7 +14200,7 @@
         <v>682</v>
       </c>
       <c r="G358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -14322,7 +14316,7 @@
         <v>690</v>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14351,7 +14345,7 @@
         <v>692</v>
       </c>
       <c r="G363" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14409,7 +14403,7 @@
         <v>696</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14438,7 +14432,7 @@
         <v>698</v>
       </c>
       <c r="G366" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14467,7 +14461,7 @@
         <v>700</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14496,7 +14490,7 @@
         <v>702</v>
       </c>
       <c r="G368" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14554,7 +14548,7 @@
         <v>706</v>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -14583,7 +14577,7 @@
         <v>708</v>
       </c>
       <c r="G371" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14612,7 +14606,7 @@
         <v>710</v>
       </c>
       <c r="G372" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -14641,7 +14635,7 @@
         <v>712</v>
       </c>
       <c r="G373" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14786,7 +14780,7 @@
         <v>722</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14815,7 +14809,7 @@
         <v>724</v>
       </c>
       <c r="G379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -15105,7 +15099,7 @@
         <v>744</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -15134,7 +15128,7 @@
         <v>746</v>
       </c>
       <c r="G390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15244,10 +15238,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>753</v>
+        <v>121</v>
       </c>
       <c r="F394" t="s">
-        <v>754</v>
+        <v>122</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15273,10 +15267,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>121</v>
+        <v>753</v>
       </c>
       <c r="F395" t="s">
-        <v>122</v>
+        <v>754</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15308,7 +15302,7 @@
         <v>756</v>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15366,7 +15360,7 @@
         <v>760</v>
       </c>
       <c r="G398" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -15389,13 +15383,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>761</v>
+        <v>47</v>
       </c>
       <c r="F399" t="s">
-        <v>762</v>
+        <v>48</v>
       </c>
       <c r="G399" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -15418,13 +15412,13 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>47</v>
+        <v>761</v>
       </c>
       <c r="F400" t="s">
-        <v>48</v>
+        <v>762</v>
       </c>
       <c r="G400" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -15447,13 +15441,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>763</v>
+        <v>593</v>
       </c>
       <c r="F401" t="s">
-        <v>764</v>
+        <v>594</v>
       </c>
       <c r="G401" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -15476,10 +15470,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>595</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>596</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15563,13 +15557,13 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>769</v>
+        <v>57</v>
       </c>
       <c r="F405" t="s">
-        <v>770</v>
+        <v>58</v>
       </c>
       <c r="G405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -15592,13 +15586,13 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>57</v>
+        <v>769</v>
       </c>
       <c r="F406" t="s">
-        <v>58</v>
+        <v>770</v>
       </c>
       <c r="G406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15824,10 +15818,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>785</v>
+        <v>127</v>
       </c>
       <c r="F414" t="s">
-        <v>786</v>
+        <v>128</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15853,10 +15847,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F415" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15882,10 +15876,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>129</v>
+        <v>785</v>
       </c>
       <c r="F416" t="s">
-        <v>130</v>
+        <v>786</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15911,10 +15905,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>787</v>
+        <v>125</v>
       </c>
       <c r="F417" t="s">
-        <v>788</v>
+        <v>126</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15940,10 +15934,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>125</v>
+        <v>787</v>
       </c>
       <c r="F418" t="s">
-        <v>126</v>
+        <v>788</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16056,10 +16050,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F422" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16085,13 +16079,13 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="F423" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -16114,13 +16108,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>797</v>
+        <v>161</v>
       </c>
       <c r="F424" t="s">
-        <v>798</v>
+        <v>162</v>
       </c>
       <c r="G424" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16143,13 +16137,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>161</v>
+        <v>475</v>
       </c>
       <c r="F425" t="s">
-        <v>162</v>
+        <v>476</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16172,13 +16166,13 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>477</v>
+        <v>797</v>
       </c>
       <c r="F426" t="s">
-        <v>478</v>
+        <v>798</v>
       </c>
       <c r="G426" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -16404,10 +16398,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>813</v>
+        <v>65</v>
       </c>
       <c r="F434" t="s">
-        <v>814</v>
+        <v>66</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16433,13 +16427,13 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F435" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16462,13 +16456,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>67</v>
+        <v>813</v>
       </c>
       <c r="F436" t="s">
-        <v>68</v>
+        <v>814</v>
       </c>
       <c r="G436" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16491,10 +16485,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>815</v>
+        <v>71</v>
       </c>
       <c r="F437" t="s">
-        <v>816</v>
+        <v>72</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16520,10 +16514,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F438" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16549,10 +16543,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>77</v>
+        <v>815</v>
       </c>
       <c r="F439" t="s">
-        <v>78</v>
+        <v>816</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16694,10 +16688,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="F444" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16723,10 +16717,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>797</v>
+        <v>85</v>
       </c>
       <c r="F445" t="s">
-        <v>798</v>
+        <v>86</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16752,10 +16746,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>85</v>
+        <v>825</v>
       </c>
       <c r="F446" t="s">
-        <v>86</v>
+        <v>826</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17013,10 +17007,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>843</v>
+        <v>385</v>
       </c>
       <c r="F455" t="s">
-        <v>844</v>
+        <v>386</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17042,10 +17036,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>387</v>
+        <v>843</v>
       </c>
       <c r="F456" t="s">
-        <v>388</v>
+        <v>844</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17100,10 +17094,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>847</v>
+        <v>135</v>
       </c>
       <c r="F458" t="s">
-        <v>848</v>
+        <v>136</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17129,10 +17123,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F459" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17158,10 +17152,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
       <c r="F460" t="s">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17187,10 +17181,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>393</v>
+        <v>847</v>
       </c>
       <c r="F461" t="s">
-        <v>394</v>
+        <v>848</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17274,10 +17268,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>853</v>
+        <v>537</v>
       </c>
       <c r="F464" t="s">
-        <v>854</v>
+        <v>538</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17303,10 +17297,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>539</v>
+        <v>853</v>
       </c>
       <c r="F465" t="s">
-        <v>540</v>
+        <v>854</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17854,10 +17848,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>891</v>
+        <v>53</v>
       </c>
       <c r="F484" t="s">
-        <v>892</v>
+        <v>54</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17883,10 +17877,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>53</v>
+        <v>891</v>
       </c>
       <c r="F485" t="s">
-        <v>54</v>
+        <v>892</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18173,10 +18167,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>911</v>
+        <v>53</v>
       </c>
       <c r="F495" t="s">
-        <v>912</v>
+        <v>54</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18202,10 +18196,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F496" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18231,10 +18225,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>121</v>
+        <v>911</v>
       </c>
       <c r="F497" t="s">
-        <v>122</v>
+        <v>912</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18318,10 +18312,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>917</v>
+        <v>687</v>
       </c>
       <c r="F500" t="s">
-        <v>918</v>
+        <v>688</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18347,10 +18341,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>689</v>
+        <v>917</v>
       </c>
       <c r="F501" t="s">
-        <v>690</v>
+        <v>918</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18556,7 +18550,7 @@
         <v>932</v>
       </c>
       <c r="G508" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18585,7 +18579,7 @@
         <v>934</v>
       </c>
       <c r="G509" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18875,7 +18869,7 @@
         <v>954</v>
       </c>
       <c r="G519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -18904,7 +18898,7 @@
         <v>956</v>
       </c>
       <c r="G520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -19049,7 +19043,7 @@
         <v>966</v>
       </c>
       <c r="G525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -19078,7 +19072,7 @@
         <v>968</v>
       </c>
       <c r="G526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -19310,7 +19304,7 @@
         <v>984</v>
       </c>
       <c r="G534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -19339,7 +19333,7 @@
         <v>986</v>
       </c>
       <c r="G535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19368,7 +19362,7 @@
         <v>988</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -19397,7 +19391,7 @@
         <v>990</v>
       </c>
       <c r="G537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -19455,7 +19449,7 @@
         <v>994</v>
       </c>
       <c r="G539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H539" t="s">
         <v>4</v>
@@ -19484,7 +19478,7 @@
         <v>996</v>
       </c>
       <c r="G540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -19687,7 +19681,7 @@
         <v>1010</v>
       </c>
       <c r="G547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -19716,7 +19710,7 @@
         <v>1012</v>
       </c>
       <c r="G548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -19832,7 +19826,7 @@
         <v>1020</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -19861,7 +19855,7 @@
         <v>1022</v>
       </c>
       <c r="G553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H553" t="s">
         <v>4</v>
@@ -20296,7 +20290,7 @@
         <v>1052</v>
       </c>
       <c r="G568" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H568" t="s">
         <v>4</v>
@@ -20325,7 +20319,7 @@
         <v>1054</v>
       </c>
       <c r="G569" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H569" t="s">
         <v>4</v>
@@ -20348,10 +20342,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1055</v>
+        <v>1013</v>
       </c>
       <c r="F570" t="s">
-        <v>1056</v>
+        <v>1014</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20377,10 +20371,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1015</v>
+        <v>1055</v>
       </c>
       <c r="F571" t="s">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20528,7 +20522,7 @@
         <v>1066</v>
       </c>
       <c r="G576" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -20557,7 +20551,7 @@
         <v>1068</v>
       </c>
       <c r="G577" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H577" t="s">
         <v>4</v>
@@ -20754,10 +20748,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1081</v>
+        <v>1053</v>
       </c>
       <c r="F584" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20783,10 +20777,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1055</v>
+        <v>1081</v>
       </c>
       <c r="F585" t="s">
-        <v>1056</v>
+        <v>1082</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20870,10 +20864,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1087</v>
+        <v>1009</v>
       </c>
       <c r="F588" t="s">
-        <v>1088</v>
+        <v>1010</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20899,10 +20893,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1011</v>
+        <v>1087</v>
       </c>
       <c r="F589" t="s">
-        <v>1012</v>
+        <v>1088</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20963,7 +20957,7 @@
         <v>1092</v>
       </c>
       <c r="G591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H591" t="s">
         <v>4</v>
@@ -20992,7 +20986,7 @@
         <v>1094</v>
       </c>
       <c r="G592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -21305,13 +21299,13 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1115</v>
+        <v>957</v>
       </c>
       <c r="F603" t="s">
-        <v>1116</v>
+        <v>958</v>
       </c>
       <c r="G603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H603" t="s">
         <v>4</v>
@@ -21334,13 +21328,13 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>959</v>
+        <v>1115</v>
       </c>
       <c r="F604" t="s">
-        <v>960</v>
+        <v>1116</v>
       </c>
       <c r="G604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H604" t="s">
         <v>4</v>
@@ -21537,10 +21531,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1129</v>
+        <v>985</v>
       </c>
       <c r="F611" t="s">
-        <v>1130</v>
+        <v>986</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21566,10 +21560,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>987</v>
+        <v>1129</v>
       </c>
       <c r="F612" t="s">
-        <v>988</v>
+        <v>1130</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21717,7 +21711,7 @@
         <v>1140</v>
       </c>
       <c r="G617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -21746,7 +21740,7 @@
         <v>1142</v>
       </c>
       <c r="G618" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -21775,7 +21769,7 @@
         <v>1144</v>
       </c>
       <c r="G619" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -21885,13 +21879,13 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
+        <v>53</v>
+      </c>
+      <c r="F623" t="s">
         <v>1151</v>
       </c>
-      <c r="F623" t="s">
-        <v>1152</v>
-      </c>
       <c r="G623" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H623" t="s">
         <v>4</v>
@@ -21917,44 +21911,15 @@
         <v>53</v>
       </c>
       <c r="F624" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G624" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
       </c>
       <c r="I624" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="625" spans="1:9">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="s">
-        <v>0</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1</v>
-      </c>
-      <c r="D625" t="n">
-        <v>624</v>
-      </c>
-      <c r="E625" t="s">
-        <v>53</v>
-      </c>
-      <c r="F625" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G625" t="n">
-        <v>1</v>
-      </c>
-      <c r="H625" t="s">
-        <v>4</v>
-      </c>
-      <c r="I625" t="n">
         <v>3</v>
       </c>
     </row>
